--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Return_1.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Return_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkamalov\.openl\user-workspace\DEFAULT\EPBDS-8247_Conditions_Return_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49626235-5E51-445E-9EC1-D7BA1B0164B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A338501-44B7-4EEB-9508-54F04B58CDA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="1245" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="45">
   <si>
     <t>Conditions</t>
   </si>
@@ -116,16 +116,46 @@
     <t>SmartRules DoubleValue test3(Double p1, Integer p2)</t>
   </si>
   <si>
-    <t>RET1</t>
-  </si>
-  <si>
-    <t>Rules DoubleValue test4(Double p1, Integer p2)</t>
-  </si>
-  <si>
-    <t>p1 + p2</t>
-  </si>
-  <si>
-    <t>MC1</t>
+    <t>ImplicitMatch1</t>
+  </si>
+  <si>
+    <t>Integer x</t>
+  </si>
+  <si>
+    <t>p1 == x</t>
+  </si>
+  <si>
+    <t>Integer p1</t>
+  </si>
+  <si>
+    <t>SmartRules DoubleValue test4(Double param1)</t>
+  </si>
+  <si>
+    <t>Test test4 test4Test</t>
+  </si>
+  <si>
+    <t>p1 + p2 + x1 + x2</t>
+  </si>
+  <si>
+    <t>Test test3 test3Test</t>
+  </si>
+  <si>
+    <t>SmartRules DoubleValue test5(Double param1, Integer param2)</t>
+  </si>
+  <si>
+    <t>Test test5 test5Test</t>
+  </si>
+  <si>
+    <t>Return1</t>
+  </si>
+  <si>
+    <t>SmartRules DoubleValue test6(Double param1)</t>
+  </si>
+  <si>
+    <t>Test test6 test6Test</t>
+  </si>
+  <si>
+    <t>p1 * 2</t>
   </si>
 </sst>
 </file>
@@ -165,7 +195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.39997558519241921" rgb="4F81BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,9 +290,9 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -285,24 +315,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,49 +360,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F354967-CCBB-4C8D-AC6A-190478DBA6AE}">
-  <dimension ref="C3:I45"/>
+  <dimension ref="C3:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -751,412 +763,498 @@
   <sheetData>
     <row r="3" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25" t="s">
+      <c r="D6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="26"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
+      <c r="D8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="12" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="15" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C16" s="29" t="s">
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="16" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="18" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="2" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="27">
-        <v>1</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19">
         <v>6</v>
       </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="27">
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="14">
         <v>2</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19">
+      <c r="D20" s="15"/>
+      <c r="E20">
         <v>5</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="27">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="14">
         <v>3</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20">
+      <c r="D21" s="15"/>
+      <c r="E21">
         <v>4</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F21" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="27">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="14">
         <v>4</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21">
+      <c r="D22" s="15"/>
+      <c r="E22">
         <v>3</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="27">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="14">
         <v>5</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22">
+      <c r="D23" s="15"/>
+      <c r="E23">
         <v>2</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F23" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="28">
+    <row r="24" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="18">
         <v>6</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="D24" s="19"/>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C26" s="29" t="s">
+    <row r="26" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C27" s="18" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D28" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C28" s="27">
-        <v>1</v>
-      </c>
-      <c r="D28" s="25">
-        <v>1</v>
-      </c>
-      <c r="E28">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C29" s="14">
+        <v>1</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C29" s="27">
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C30" s="14">
         <v>2</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D30" s="15">
         <v>2</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>5</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C30" s="27">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C31" s="14">
         <v>3</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D31" s="15">
         <v>3</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>4</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F31" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C31" s="27">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C32" s="14">
         <v>4</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D32" s="15">
         <v>4</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>3</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="27">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C33" s="14">
         <v>5</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D33" s="15">
         <v>5</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>2</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F33" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="28">
+    <row r="34" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="18">
         <v>6</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D34" s="19">
         <v>6</v>
       </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C36" s="29" t="s">
+    <row r="36" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C37" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="12">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5">
+    <row r="40" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="12">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
         <v>6</v>
       </c>
-      <c r="E39" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C42" s="29" t="s">
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C43" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="31"/>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C43" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="17"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C45" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="12">
-        <v>1</v>
-      </c>
-      <c r="D45" s="5">
+    <row r="46" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="12">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5">
         <v>6</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C50" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C52" s="14">
+        <v>1</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C53" s="14">
+        <v>2</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C54" s="14">
+        <v>3</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="18">
+        <v>4</v>
+      </c>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C59" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="17"/>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C60" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C61" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="12">
+        <v>1</v>
+      </c>
+      <c r="D62" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C16:F16"/>
+  <mergeCells count="42">
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
@@ -1165,6 +1263,37 @@
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="H6:I9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C37:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1172,15 +1301,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63C529D-8F6D-4385-8ECE-0B2A69A63EA5}">
-  <dimension ref="B3:H40"/>
+  <dimension ref="B3:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="50.0" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="31.0" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1197,49 +1327,94 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="36" t="s">
+      <c r="E5" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="37"/>
-    </row>
-    <row r="6" spans="2:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+    </row>
+    <row r="9" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="23"/>
     </row>
     <row r="15" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1248,10 +1423,10 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="15"/>
       <c r="D18">
         <v>6</v>
       </c>
@@ -1260,10 +1435,10 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="15"/>
       <c r="D19">
         <v>5</v>
       </c>
@@ -1272,10 +1447,10 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="15"/>
       <c r="D20">
         <v>4</v>
       </c>
@@ -1284,10 +1459,10 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="15"/>
       <c r="D21">
         <v>3</v>
       </c>
@@ -1296,10 +1471,10 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="15"/>
       <c r="D22">
         <v>2</v>
       </c>
@@ -1308,10 +1483,10 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="16"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="5">
         <v>1</v>
       </c>
@@ -1319,25 +1494,282 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="17"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="12">
+        <v>7</v>
+      </c>
+      <c r="C50" s="5">
+        <v>3</v>
+      </c>
+      <c r="D50" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="17"/>
+    </row>
+    <row r="55" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="17"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="12">
+        <v>2</v>
+      </c>
+      <c r="C68" s="6" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="B16:E16"/>
+  <mergeCells count="30">
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="G5:H8"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B17:C17"/>
@@ -1345,6 +1777,25 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Return_1.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Return_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkamalov\.openl\user-workspace\DEFAULT\EPBDS-8247_Conditions_Return_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A338501-44B7-4EEB-9508-54F04B58CDA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE8AC27-B0C4-484E-B667-27FE94882288}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="1245" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
   <si>
     <t>Conditions</t>
   </si>
@@ -156,6 +156,24 @@
   </si>
   <si>
     <t>p1 * 2</t>
+  </si>
+  <si>
+    <t>Test test7 test7Test</t>
+  </si>
+  <si>
+    <t>SmartRules Collect DoubleValue test7(Double param1)</t>
+  </si>
+  <si>
+    <t>SmartRules Collect DoubleValue[] test7(Double param1)</t>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4</t>
+  </si>
+  <si>
+    <t>Title1</t>
+  </si>
+  <si>
+    <t>Title2</t>
   </si>
 </sst>
 </file>
@@ -189,7 +207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,33 +333,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,20 +384,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F354967-CCBB-4C8D-AC6A-190478DBA6AE}">
   <dimension ref="C3:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:D62"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -763,135 +781,135 @@
   <sheetData>
     <row r="3" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="D6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="29"/>
+      <c r="D7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="29"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="29"/>
+        <v>50</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="23"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="16" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="17"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
@@ -900,10 +918,10 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="14">
-        <v>1</v>
-      </c>
-      <c r="D19" s="15"/>
+      <c r="C19" s="22">
+        <v>1</v>
+      </c>
+      <c r="D19" s="23"/>
       <c r="E19">
         <v>6</v>
       </c>
@@ -912,10 +930,10 @@
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="14">
-        <v>2</v>
-      </c>
-      <c r="D20" s="15"/>
+      <c r="C20" s="22">
+        <v>2</v>
+      </c>
+      <c r="D20" s="23"/>
       <c r="E20">
         <v>5</v>
       </c>
@@ -924,10 +942,10 @@
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="14">
+      <c r="C21" s="22">
         <v>3</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="23"/>
       <c r="E21">
         <v>4</v>
       </c>
@@ -936,10 +954,10 @@
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="14">
+      <c r="C22" s="22">
         <v>4</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="23"/>
       <c r="E22">
         <v>3</v>
       </c>
@@ -948,10 +966,10 @@
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="14">
+      <c r="C23" s="22">
         <v>5</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="23"/>
       <c r="E23">
         <v>2</v>
       </c>
@@ -960,10 +978,10 @@
       </c>
     </row>
     <row r="24" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>6</v>
       </c>
-      <c r="D24" s="19"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="5">
         <v>1</v>
       </c>
@@ -973,18 +991,18 @@
     </row>
     <row r="26" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -995,10 +1013,10 @@
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C29" s="14">
-        <v>1</v>
-      </c>
-      <c r="D29" s="15">
+      <c r="C29" s="22">
+        <v>1</v>
+      </c>
+      <c r="D29" s="23">
         <v>1</v>
       </c>
       <c r="E29">
@@ -1009,10 +1027,10 @@
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C30" s="14">
-        <v>2</v>
-      </c>
-      <c r="D30" s="15">
+      <c r="C30" s="22">
+        <v>2</v>
+      </c>
+      <c r="D30" s="23">
         <v>2</v>
       </c>
       <c r="E30">
@@ -1023,10 +1041,10 @@
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C31" s="14">
+      <c r="C31" s="22">
         <v>3</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="23">
         <v>3</v>
       </c>
       <c r="E31">
@@ -1037,10 +1055,10 @@
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="14">
+      <c r="C32" s="22">
         <v>4</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="23">
         <v>4</v>
       </c>
       <c r="E32">
@@ -1051,10 +1069,10 @@
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C33" s="14">
+      <c r="C33" s="22">
         <v>5</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="23">
         <v>5</v>
       </c>
       <c r="E33">
@@ -1065,10 +1083,10 @@
       </c>
     </row>
     <row r="34" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <v>6</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="18">
         <v>6</v>
       </c>
       <c r="E34" s="5">
@@ -1080,11 +1098,11 @@
     </row>
     <row r="36" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="17"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="16"/>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="11" t="s">
@@ -1121,11 +1139,11 @@
     </row>
     <row r="42" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="17"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="11" t="s">
@@ -1162,69 +1180,69 @@
     </row>
     <row r="49" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
     </row>
     <row r="51" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
       <c r="F51" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C52" s="14">
-        <v>1</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
+      <c r="C52" s="22">
+        <v>1</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
       <c r="F52" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C53" s="14">
-        <v>2</v>
-      </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
+      <c r="C53" s="22">
+        <v>2</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
       <c r="F53" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C54" s="14">
+      <c r="C54" s="22">
         <v>3</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
       <c r="F54" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="18">
+      <c r="C55" s="17">
         <v>4</v>
       </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
       <c r="F55" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="17"/>
+      <c r="D59" s="16"/>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="11" t="s">
@@ -1277,13 +1295,13 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C43:E43"/>
@@ -1301,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63C529D-8F6D-4385-8ECE-0B2A69A63EA5}">
-  <dimension ref="B3:H68"/>
+  <dimension ref="B3:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1327,7 +1345,7 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="31"/>
@@ -1338,13 +1356,13 @@
         <v>37</v>
       </c>
       <c r="F5" s="31"/>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="33"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="31"/>
@@ -1353,11 +1371,11 @@
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="31"/>
@@ -1368,11 +1386,11 @@
         <v>37</v>
       </c>
       <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="31"/>
@@ -1381,40 +1399,40 @@
       </c>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="15" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="17"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1423,10 +1441,10 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="15"/>
+      <c r="B18" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="23"/>
       <c r="D18">
         <v>6</v>
       </c>
@@ -1435,10 +1453,10 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="15"/>
+      <c r="B19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="23"/>
       <c r="D19">
         <v>5</v>
       </c>
@@ -1447,10 +1465,10 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="15"/>
+      <c r="B20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="23"/>
       <c r="D20">
         <v>4</v>
       </c>
@@ -1459,10 +1477,10 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="15"/>
+      <c r="B21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="23"/>
       <c r="D21">
         <v>3</v>
       </c>
@@ -1471,10 +1489,10 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="15"/>
+      <c r="B22" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="23"/>
       <c r="D22">
         <v>2</v>
       </c>
@@ -1483,10 +1501,10 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="19"/>
+      <c r="B23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="18"/>
       <c r="D23" s="5">
         <v>1</v>
       </c>
@@ -1496,11 +1514,11 @@
     </row>
     <row r="27" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="17"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
@@ -1538,18 +1556,18 @@
     <row r="34" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="17"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="16"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="22"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="2" t="s">
         <v>11</v>
       </c>
@@ -1558,10 +1576,10 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="15"/>
+      <c r="B38" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="23"/>
       <c r="D38">
         <v>6</v>
       </c>
@@ -1570,10 +1588,10 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="15"/>
+      <c r="B39" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="23"/>
       <c r="D39">
         <v>5</v>
       </c>
@@ -1582,10 +1600,10 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="15"/>
+      <c r="B40" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="23"/>
       <c r="D40">
         <v>4</v>
       </c>
@@ -1594,10 +1612,10 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="15"/>
+      <c r="B41" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="23"/>
       <c r="D41">
         <v>3</v>
       </c>
@@ -1606,10 +1624,10 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="15"/>
+      <c r="B42" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="23"/>
       <c r="D42">
         <v>2</v>
       </c>
@@ -1618,10 +1636,10 @@
       </c>
     </row>
     <row r="43" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="19"/>
+      <c r="B43" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="18"/>
       <c r="D43" s="5">
         <v>1</v>
       </c>
@@ -1631,11 +1649,11 @@
     </row>
     <row r="46" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="17"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="16"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
@@ -1672,13 +1690,13 @@
     </row>
     <row r="53" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="17"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -1735,10 +1753,10 @@
     </row>
     <row r="64" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C65" s="17"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="11" t="s">
@@ -1760,14 +1778,106 @@
       <c r="B68" s="12">
         <v>2</v>
       </c>
-      <c r="C68" s="6" t="n">
-        <v>4.0</v>
+      <c r="C68" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="16"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B76" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B78" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="16"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="12">
+        <v>2</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B54:C54"/>
+  <mergeCells count="32">
     <mergeCell ref="G5:H8"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B22:C22"/>
@@ -1787,15 +1897,19 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:F8"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B47:D47"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B54:C54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Return_1.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Return_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkamalov\.openl\user-workspace\DEFAULT\EPBDS-8247_Conditions_Return_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkamalov\.openl\user-workspace\DEFAULT\EPBDS-8247_Conditions_Return_1_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE8AC27-B0C4-484E-B667-27FE94882288}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E10A4F-54BE-4E91-996F-FB2E42DD7AEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1245" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6330" yWindow="945" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="67">
   <si>
     <t>Conditions</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Test test7 test7Test</t>
   </si>
   <si>
-    <t>SmartRules Collect DoubleValue test7(Double param1)</t>
-  </si>
-  <si>
     <t>SmartRules Collect DoubleValue[] test7(Double param1)</t>
   </si>
   <si>
@@ -174,6 +171,57 @@
   </si>
   <si>
     <t>Title2</t>
+  </si>
+  <si>
+    <t>Integer x3</t>
+  </si>
+  <si>
+    <t>Integer x4</t>
+  </si>
+  <si>
+    <t>x1 + x2 + x3 + x4 == p1</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>x1 + x2 == p1</t>
+  </si>
+  <si>
+    <t>SmartRules Double test8(Integer p1)</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>Test test8 test8Test</t>
+  </si>
+  <si>
+    <t>Double p1</t>
+  </si>
+  <si>
+    <t>(x1 + x2) * 2 == p1</t>
+  </si>
+  <si>
+    <t>SmartRules Double test9(Integer param1)</t>
+  </si>
+  <si>
+    <t>Test test8 test9Test</t>
+  </si>
+  <si>
+    <t>SmartRules Double test10(Double param1)</t>
+  </si>
+  <si>
+    <t>Test test10 test10Test</t>
   </si>
 </sst>
 </file>
@@ -207,7 +255,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -336,18 +384,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,37 +414,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -761,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F354967-CCBB-4C8D-AC6A-190478DBA6AE}">
-  <dimension ref="C3:I62"/>
+  <dimension ref="C3:I136"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:F24"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -781,498 +838,1190 @@
   <sheetData>
     <row r="3" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28" t="s">
+      <c r="D5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23" t="s">
+      <c r="D6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="30"/>
+      <c r="D7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="30"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="30"/>
+        <v>49</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23" t="s">
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="30"/>
-    </row>
-    <row r="11" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="16" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="15" t="s">
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="28" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="20" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="2" t="s">
+      <c r="D30" s="24"/>
+      <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="22">
-        <v>1</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19">
-        <v>6</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="22">
-        <v>2</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="16">
+        <v>1</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="16">
+        <v>2</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32">
         <v>5</v>
       </c>
-      <c r="F20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="22">
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C33" s="16">
         <v>3</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21">
+      <c r="D33" s="17"/>
+      <c r="E33">
         <v>4</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F33" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="22">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34" s="16">
         <v>4</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22">
+      <c r="D34" s="17"/>
+      <c r="E34">
         <v>3</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F34" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="22">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C35" s="16">
         <v>5</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="D35" s="17"/>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="17">
-        <v>6</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C27" s="15" t="s">
+    <row r="36" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="18">
+        <v>6</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C28" s="20" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C40" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D40" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C29" s="22">
-        <v>1</v>
-      </c>
-      <c r="D29" s="23">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>6</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C30" s="22">
-        <v>2</v>
-      </c>
-      <c r="D30" s="23">
-        <v>2</v>
-      </c>
-      <c r="E30">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C41" s="16">
+        <v>1</v>
+      </c>
+      <c r="D41" s="17">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="16">
+        <v>2</v>
+      </c>
+      <c r="D42" s="17">
+        <v>2</v>
+      </c>
+      <c r="E42">
         <v>5</v>
       </c>
-      <c r="F30" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C31" s="22">
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C43" s="16">
         <v>3</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D43" s="17">
         <v>3</v>
       </c>
-      <c r="E31">
+      <c r="E43">
         <v>4</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F43" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="22">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C44" s="16">
         <v>4</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D44" s="17">
         <v>4</v>
       </c>
-      <c r="E32">
+      <c r="E44">
         <v>3</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F44" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C33" s="22">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C45" s="16">
         <v>5</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D45" s="17">
         <v>5</v>
       </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="17">
-        <v>6</v>
-      </c>
-      <c r="D34" s="18">
-        <v>6</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C37" s="15" t="s">
+    <row r="46" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="18">
+        <v>6</v>
+      </c>
+      <c r="D46" s="19">
+        <v>6</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C49" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C38" s="11" t="s">
+      <c r="D49" s="22"/>
+      <c r="E49" s="21"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C50" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D50" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C39" s="11" t="s">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C51" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D51" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="12">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5">
-        <v>6</v>
-      </c>
-      <c r="E40" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C43" s="15" t="s">
+    <row r="52" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="12">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5">
+        <v>6</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C55" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="16"/>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C44" s="11" t="s">
+      <c r="D55" s="22"/>
+      <c r="E55" s="21"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C56" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D56" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C45" s="11" t="s">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C57" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D57" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="12">
-        <v>1</v>
-      </c>
-      <c r="D46" s="5">
-        <v>6</v>
-      </c>
-      <c r="E46" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C50" s="15" t="s">
+    <row r="58" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="12">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5">
+        <v>6</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C62" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-    </row>
-    <row r="51" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="20" t="s">
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+    </row>
+    <row r="63" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="3" t="s">
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C52" s="22">
-        <v>1</v>
-      </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C53" s="22">
-        <v>2</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C54" s="22">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C64" s="16">
+        <v>1</v>
+      </c>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C65" s="16">
+        <v>2</v>
+      </c>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C66" s="16">
         <v>3</v>
       </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="4">
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="17">
+    <row r="67" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="18">
         <v>4</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="6">
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C59" s="15" t="s">
+    <row r="70" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C71" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="16"/>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C60" s="11" t="s">
+      <c r="D71" s="21"/>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C72" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C61" s="11" t="s">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C73" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="12">
-        <v>1</v>
-      </c>
-      <c r="D62" s="6">
-        <v>1</v>
+    <row r="74" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="12">
+        <v>1</v>
+      </c>
+      <c r="D74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C80" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="21"/>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C81" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C82" s="16">
+        <v>1</v>
+      </c>
+      <c r="D82" s="17"/>
+      <c r="E82">
+        <v>6</v>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+      <c r="G82">
+        <v>13</v>
+      </c>
+      <c r="H82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C83" s="16">
+        <v>2</v>
+      </c>
+      <c r="D83" s="17"/>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>8</v>
+      </c>
+      <c r="G83">
+        <v>14</v>
+      </c>
+      <c r="H83" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C84" s="16">
+        <v>3</v>
+      </c>
+      <c r="D84" s="17"/>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <v>9</v>
+      </c>
+      <c r="G84">
+        <v>15</v>
+      </c>
+      <c r="H84" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C85" s="16">
+        <v>4</v>
+      </c>
+      <c r="D85" s="17"/>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85">
+        <v>16</v>
+      </c>
+      <c r="H85" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C86" s="16">
+        <v>5</v>
+      </c>
+      <c r="D86" s="17"/>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86">
+        <v>17</v>
+      </c>
+      <c r="H86" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="18">
+        <v>6</v>
+      </c>
+      <c r="D87" s="19"/>
+      <c r="E87" s="5">
+        <v>1</v>
+      </c>
+      <c r="F87" s="5">
+        <v>6</v>
+      </c>
+      <c r="G87" s="5">
+        <v>1</v>
+      </c>
+      <c r="H87" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C92" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="21"/>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C93" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C94" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="12">
+        <v>7</v>
+      </c>
+      <c r="D95" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C100" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="21"/>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C101" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101" s="24"/>
+      <c r="E101" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C102" s="16">
+        <v>1</v>
+      </c>
+      <c r="D102" s="17"/>
+      <c r="E102">
+        <v>6</v>
+      </c>
+      <c r="F102">
+        <v>7</v>
+      </c>
+      <c r="G102">
+        <v>13</v>
+      </c>
+      <c r="H102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C103" s="16">
+        <v>2</v>
+      </c>
+      <c r="D103" s="17"/>
+      <c r="E103">
+        <v>5</v>
+      </c>
+      <c r="F103">
+        <v>8</v>
+      </c>
+      <c r="G103">
+        <v>14</v>
+      </c>
+      <c r="H103" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C104" s="16">
+        <v>3</v>
+      </c>
+      <c r="D104" s="17"/>
+      <c r="E104">
+        <v>4</v>
+      </c>
+      <c r="F104">
+        <v>9</v>
+      </c>
+      <c r="G104">
+        <v>15</v>
+      </c>
+      <c r="H104" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C105" s="16">
+        <v>4</v>
+      </c>
+      <c r="D105" s="17"/>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+      <c r="G105">
+        <v>16</v>
+      </c>
+      <c r="H105" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C106" s="16">
+        <v>5</v>
+      </c>
+      <c r="D106" s="17"/>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>11</v>
+      </c>
+      <c r="G106">
+        <v>17</v>
+      </c>
+      <c r="H106" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C107" s="18">
+        <v>6</v>
+      </c>
+      <c r="D107" s="19"/>
+      <c r="E107" s="5">
+        <v>1</v>
+      </c>
+      <c r="F107" s="5">
+        <v>6</v>
+      </c>
+      <c r="G107" s="5">
+        <v>1</v>
+      </c>
+      <c r="H107" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C112" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D112" s="21"/>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C113" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C114" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="12">
+        <v>7</v>
+      </c>
+      <c r="D115" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C121" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="21"/>
+    </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C122" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D122" s="24"/>
+      <c r="E122" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H122" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C123" s="16">
+        <v>1</v>
+      </c>
+      <c r="D123" s="17"/>
+      <c r="E123">
+        <v>6</v>
+      </c>
+      <c r="F123">
+        <v>7</v>
+      </c>
+      <c r="G123">
+        <v>13</v>
+      </c>
+      <c r="H123" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C124" s="16">
+        <v>2</v>
+      </c>
+      <c r="D124" s="17"/>
+      <c r="E124">
+        <v>5</v>
+      </c>
+      <c r="F124">
+        <v>8</v>
+      </c>
+      <c r="G124">
+        <v>14</v>
+      </c>
+      <c r="H124" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C125" s="16">
+        <v>3</v>
+      </c>
+      <c r="D125" s="17"/>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <v>9</v>
+      </c>
+      <c r="G125">
+        <v>15</v>
+      </c>
+      <c r="H125" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C126" s="16">
+        <v>4</v>
+      </c>
+      <c r="D126" s="17"/>
+      <c r="E126">
+        <v>3</v>
+      </c>
+      <c r="F126">
+        <v>10</v>
+      </c>
+      <c r="G126">
+        <v>16</v>
+      </c>
+      <c r="H126" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C127" s="16">
+        <v>5</v>
+      </c>
+      <c r="D127" s="17"/>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127">
+        <v>11</v>
+      </c>
+      <c r="G127">
+        <v>17</v>
+      </c>
+      <c r="H127" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="18">
+        <v>6</v>
+      </c>
+      <c r="D128" s="19"/>
+      <c r="E128" s="5">
+        <v>1</v>
+      </c>
+      <c r="F128" s="5">
+        <v>6</v>
+      </c>
+      <c r="G128" s="5">
+        <v>1</v>
+      </c>
+      <c r="H128" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C133" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D133" s="21"/>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C134" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C135" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C136" s="12">
+        <v>14</v>
+      </c>
+      <c r="D136" s="6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="C18:D18"/>
+  <mergeCells count="88">
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="H19:I22"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
@@ -1286,32 +2035,60 @@
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F11:G14"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="H11:I18"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C125:D125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1321,7 +2098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63C529D-8F6D-4385-8ECE-0B2A69A63EA5}">
   <dimension ref="B3:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
@@ -1345,94 +2122,94 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="33" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="34"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="15" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="16"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1441,10 +2218,10 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="17"/>
       <c r="D18">
         <v>6</v>
       </c>
@@ -1453,10 +2230,10 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="17"/>
       <c r="D19">
         <v>5</v>
       </c>
@@ -1465,10 +2242,10 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="23"/>
+      <c r="C20" s="17"/>
       <c r="D20">
         <v>4</v>
       </c>
@@ -1477,10 +2254,10 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="17"/>
       <c r="D21">
         <v>3</v>
       </c>
@@ -1489,10 +2266,10 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="17"/>
       <c r="D22">
         <v>2</v>
       </c>
@@ -1501,10 +2278,10 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="5">
         <v>1</v>
       </c>
@@ -1514,11 +2291,11 @@
     </row>
     <row r="27" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
@@ -1556,18 +2333,18 @@
     <row r="34" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="16"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="21"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="21"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="2" t="s">
         <v>11</v>
       </c>
@@ -1576,10 +2353,10 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="23"/>
+      <c r="C38" s="17"/>
       <c r="D38">
         <v>6</v>
       </c>
@@ -1588,10 +2365,10 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="23"/>
+      <c r="C39" s="17"/>
       <c r="D39">
         <v>5</v>
       </c>
@@ -1600,10 +2377,10 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="23"/>
+      <c r="C40" s="17"/>
       <c r="D40">
         <v>4</v>
       </c>
@@ -1612,10 +2389,10 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="23"/>
+      <c r="C41" s="17"/>
       <c r="D41">
         <v>3</v>
       </c>
@@ -1624,10 +2401,10 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="23"/>
+      <c r="C42" s="17"/>
       <c r="D42">
         <v>2</v>
       </c>
@@ -1636,10 +2413,10 @@
       </c>
     </row>
     <row r="43" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="5">
         <v>1</v>
       </c>
@@ -1649,11 +2426,11 @@
     </row>
     <row r="46" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="16"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
@@ -1690,10 +2467,10 @@
     </row>
     <row r="53" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="16"/>
+      <c r="C54" s="21"/>
     </row>
     <row r="55" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="14" t="s">
@@ -1753,10 +2530,10 @@
     </row>
     <row r="64" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C65" s="16"/>
+      <c r="C65" s="21"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="11" t="s">
@@ -1784,10 +2561,10 @@
     </row>
     <row r="71" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C72" s="16"/>
+      <c r="B72" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" s="21"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="14" t="s">
@@ -1847,10 +2624,10 @@
     </row>
     <row r="82" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C83" s="16"/>
+      <c r="C83" s="21"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="11" t="s">
@@ -1873,7 +2650,7 @@
         <v>2</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Return_1.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Return_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkamalov\.openl\user-workspace\DEFAULT\EPBDS-8247_Conditions_Return_1_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkamalov\.openl\user-workspace\DEFAULT\EPBDS-8247_Conditions_Return_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E10A4F-54BE-4E91-996F-FB2E42DD7AEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FC5428-DA02-46DF-BA30-E3D860F618F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="945" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7410" yWindow="4365" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="6" r:id="rId1"/>
@@ -21,207 +21,255 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="83">
+  <si>
+    <t>Integer x1</t>
+  </si>
+  <si>
+    <t>Integer x2</t>
+  </si>
+  <si>
+    <t>p1 == x1 &amp;&amp; p2 == x2 &amp;&amp; true</t>
+  </si>
+  <si>
+    <t>Returns</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Double p1, Integer p2</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>StrictMatch1</t>
+  </si>
+  <si>
+    <t>StrictMatch2</t>
+  </si>
+  <si>
+    <t>p1 == x2 &amp;&amp; p2 == x1 &amp;&amp; true</t>
+  </si>
+  <si>
+    <t>Test test1 test1Test</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>_res_</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>SmartRules DoubleValue test1(Double p1, Integer p2)</t>
+  </si>
+  <si>
+    <t>SmartRules DoubleValue test2(Double param1, Integer param2)</t>
+  </si>
+  <si>
+    <t>Test test2 test2Test</t>
+  </si>
+  <si>
+    <t>param1</t>
+  </si>
+  <si>
+    <t>param2</t>
+  </si>
+  <si>
+    <t>PARAM2</t>
+  </si>
+  <si>
+    <t>PARAM1</t>
+  </si>
+  <si>
+    <t>Always TRUE</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>SmartRules DoubleValue test3(Double p1, Integer p2)</t>
+  </si>
+  <si>
+    <t>ImplicitMatch1</t>
+  </si>
+  <si>
+    <t>Integer x</t>
+  </si>
+  <si>
+    <t>p1 == x</t>
+  </si>
+  <si>
+    <t>Integer p1</t>
+  </si>
+  <si>
+    <t>SmartRules DoubleValue test4(Double param1)</t>
+  </si>
+  <si>
+    <t>Test test4 test4Test</t>
+  </si>
+  <si>
+    <t>p1 + p2 + x1 + x2</t>
+  </si>
+  <si>
+    <t>Test test3 test3Test</t>
+  </si>
+  <si>
+    <t>SmartRules DoubleValue test5(Double param1, Integer param2)</t>
+  </si>
+  <si>
+    <t>Test test5 test5Test</t>
+  </si>
+  <si>
+    <t>Return1</t>
+  </si>
+  <si>
+    <t>SmartRules DoubleValue test6(Double param1)</t>
+  </si>
+  <si>
+    <t>Test test6 test6Test</t>
+  </si>
+  <si>
+    <t>p1 * 2</t>
+  </si>
+  <si>
+    <t>Test test7 test7Test</t>
+  </si>
+  <si>
+    <t>SmartRules Collect DoubleValue[] test7(Double param1)</t>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4</t>
+  </si>
+  <si>
+    <t>Title1</t>
+  </si>
+  <si>
+    <t>Title2</t>
+  </si>
+  <si>
+    <t>Integer x3</t>
+  </si>
+  <si>
+    <t>Integer x4</t>
+  </si>
+  <si>
+    <t>x1 + x2 + x3 + x4 == p1</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>x1 + x2 == p1</t>
+  </si>
+  <si>
+    <t>SmartRules Double test8(Integer p1)</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>Test test8 test8Test</t>
+  </si>
+  <si>
+    <t>Double p1</t>
+  </si>
+  <si>
+    <t>(x1 + x2) * 2 == p1</t>
+  </si>
+  <si>
+    <t>SmartRules Double test9(Integer param1)</t>
+  </si>
+  <si>
+    <t>Test test8 test9Test</t>
+  </si>
+  <si>
+    <t>SmartRules Double test10(Double param1)</t>
+  </si>
+  <si>
+    <t>Test test10 test10Test</t>
+  </si>
+  <si>
+    <t>Conditions trasponsedConditions</t>
+  </si>
+  <si>
+    <t>TStrictMatch1</t>
+  </si>
+  <si>
+    <t>TStrictMatch2</t>
+  </si>
+  <si>
+    <t>p2 == x1 &amp;&amp; true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1 == x1 </t>
+  </si>
+  <si>
+    <t>p1 == x1</t>
+  </si>
+  <si>
+    <t>Conditions trasponsedConditionsDefaultStructure</t>
+  </si>
   <si>
     <t>Conditions</t>
   </si>
   <si>
-    <t>Integer x1</t>
-  </si>
-  <si>
-    <t>Integer x2</t>
-  </si>
-  <si>
-    <t>p1 == x1 &amp;&amp; p2 == x2 &amp;&amp; true</t>
-  </si>
-  <si>
-    <t>Returns</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Double p1, Integer p2</t>
-  </si>
-  <si>
-    <t>Inputs</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>StrictMatch1</t>
-  </si>
-  <si>
-    <t>StrictMatch2</t>
-  </si>
-  <si>
-    <t>p1 == x2 &amp;&amp; p2 == x1 &amp;&amp; true</t>
-  </si>
-  <si>
-    <t>Test test1 test1Test</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>_res_</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>SmartRules DoubleValue test1(Double p1, Integer p2)</t>
-  </si>
-  <si>
-    <t>SmartRules DoubleValue test2(Double param1, Integer param2)</t>
-  </si>
-  <si>
-    <t>Test test2 test2Test</t>
-  </si>
-  <si>
-    <t>param1</t>
-  </si>
-  <si>
-    <t>param2</t>
-  </si>
-  <si>
-    <t>PARAM2</t>
-  </si>
-  <si>
-    <t>PARAM1</t>
-  </si>
-  <si>
-    <t>Always TRUE</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>SmartRules DoubleValue test3(Double p1, Integer p2)</t>
-  </si>
-  <si>
-    <t>ImplicitMatch1</t>
-  </si>
-  <si>
-    <t>Integer x</t>
-  </si>
-  <si>
-    <t>p1 == x</t>
-  </si>
-  <si>
-    <t>Integer p1</t>
-  </si>
-  <si>
-    <t>SmartRules DoubleValue test4(Double param1)</t>
-  </si>
-  <si>
-    <t>Test test4 test4Test</t>
-  </si>
-  <si>
-    <t>p1 + p2 + x1 + x2</t>
-  </si>
-  <si>
-    <t>Test test3 test3Test</t>
-  </si>
-  <si>
-    <t>SmartRules DoubleValue test5(Double param1, Integer param2)</t>
-  </si>
-  <si>
-    <t>Test test5 test5Test</t>
-  </si>
-  <si>
-    <t>Return1</t>
-  </si>
-  <si>
-    <t>SmartRules DoubleValue test6(Double param1)</t>
-  </si>
-  <si>
-    <t>Test test6 test6Test</t>
-  </si>
-  <si>
-    <t>p1 * 2</t>
-  </si>
-  <si>
-    <t>Test test7 test7Test</t>
-  </si>
-  <si>
-    <t>SmartRules Collect DoubleValue[] test7(Double param1)</t>
-  </si>
-  <si>
-    <t>4,4,4,4,4,4</t>
-  </si>
-  <si>
-    <t>Title1</t>
-  </si>
-  <si>
-    <t>Title2</t>
-  </si>
-  <si>
-    <t>Integer x3</t>
-  </si>
-  <si>
-    <t>Integer x4</t>
-  </si>
-  <si>
-    <t>x1 + x2 + x3 + x4 == p1</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>x1 + x2 == p1</t>
-  </si>
-  <si>
-    <t>SmartRules Double test8(Integer p1)</t>
-  </si>
-  <si>
-    <t>RETURN</t>
-  </si>
-  <si>
-    <t>Test test8 test8Test</t>
-  </si>
-  <si>
-    <t>Double p1</t>
-  </si>
-  <si>
-    <t>(x1 + x2) * 2 == p1</t>
-  </si>
-  <si>
-    <t>SmartRules Double test9(Integer param1)</t>
-  </si>
-  <si>
-    <t>Test test8 test9Test</t>
-  </si>
-  <si>
-    <t>SmartRules Double test10(Double param1)</t>
-  </si>
-  <si>
-    <t>Test test10 test10Test</t>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>HStrictMatch1</t>
+  </si>
+  <si>
+    <t>HStrictMatch2</t>
+  </si>
+  <si>
+    <t>HReturn1</t>
+  </si>
+  <si>
+    <t>Conditions trasponsedConditions2</t>
+  </si>
+  <si>
+    <t>Returns returnsWithUnmergedHeader</t>
+  </si>
+  <si>
+    <t>Returns returnsTransponsed</t>
+  </si>
+  <si>
+    <t>p1 + p2 + p3 + p4</t>
+  </si>
+  <si>
+    <t>x1 + p1</t>
   </si>
 </sst>
 </file>
@@ -246,7 +294,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,13 +303,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921" rgb="4F81BD"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485" rgb="1F497D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -387,37 +441,89 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -432,26 +538,53 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F354967-CCBB-4C8D-AC6A-190478DBA6AE}">
-  <dimension ref="C3:I136"/>
+  <dimension ref="C3:P136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="I137" sqref="I137"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -831,419 +964,608 @@
     <col min="7" max="7" customWidth="true" width="22.140625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="25.42578125" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="17.28515625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C4" s="28" t="s">
+    <row r="3" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C4" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="M4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="13"/>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="M5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="7" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="44"/>
+      <c r="H6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="34"/>
+      <c r="M6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31" t="s">
+      <c r="N6" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="34"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="44"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+      <c r="M8" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="33"/>
+      <c r="P8" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="34"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="49"/>
+      <c r="M10" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31" t="s">
+      <c r="O10" s="33"/>
+      <c r="P10" s="34"/>
+    </row>
+    <row r="11" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="44"/>
+      <c r="H11" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="34"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="47"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="44"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="M18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="44"/>
+      <c r="H19" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="34"/>
+      <c r="M19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34"/>
+      <c r="M20" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="34"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34"/>
+      <c r="M22" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="53"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="34"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M24" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P24" s="34"/>
+    </row>
+    <row r="25" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="48"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="47"/>
+    </row>
+    <row r="28" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="39"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C30" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="26"/>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="11" t="s">
+      <c r="M30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="13"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C31" s="43">
+        <v>1</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="O31" s="54"/>
+      <c r="P31" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C32" s="43">
         <v>2</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="26"/>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C18" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="26"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C20" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C21" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C22" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
-    </row>
-    <row r="23" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="33"/>
-    </row>
-    <row r="28" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C29" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C30" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="16">
-        <v>1</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31">
-        <v>6</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="16">
-        <v>2</v>
-      </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="44"/>
       <c r="E32">
         <v>5</v>
       </c>
       <c r="F32" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C33" s="16">
+      <c r="M32" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" s="55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C33" s="43">
         <v>3</v>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="44"/>
       <c r="E33">
         <v>4</v>
       </c>
       <c r="F33" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C34" s="16">
+      <c r="M33" s="32"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="55"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C34" s="43">
         <v>4</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="44"/>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C35" s="16">
+      <c r="M34" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="N34" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="O34" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" s="55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C35" s="43">
         <v>5</v>
       </c>
-      <c r="D35" s="17"/>
+      <c r="D35" s="44"/>
       <c r="E35">
         <v>2</v>
       </c>
       <c r="F35" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="18">
-        <v>6</v>
-      </c>
-      <c r="D36" s="19"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="55"/>
+    </row>
+    <row r="36" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="36">
+        <v>6</v>
+      </c>
+      <c r="D36" s="37"/>
       <c r="E36" s="5">
         <v>1</v>
       </c>
       <c r="F36" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C39" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C40" s="23" t="s">
+      <c r="M36" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="O36" s="54"/>
+      <c r="P36" s="55"/>
+    </row>
+    <row r="37" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="45"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="57"/>
+    </row>
+    <row r="38" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C39" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C40" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F40" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C41" s="16">
-        <v>1</v>
-      </c>
-      <c r="D41" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C41" s="43">
+        <v>1</v>
+      </c>
+      <c r="D41" s="44">
         <v>1</v>
       </c>
       <c r="E41">
@@ -1253,11 +1575,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C42" s="16">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C42" s="43">
         <v>2</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="44">
         <v>2</v>
       </c>
       <c r="E42">
@@ -1267,11 +1589,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C43" s="16">
+    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C43" s="43">
         <v>3</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="44">
         <v>3</v>
       </c>
       <c r="E43">
@@ -1281,11 +1603,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C44" s="16">
+    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C44" s="43">
         <v>4</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="44">
         <v>4</v>
       </c>
       <c r="E44">
@@ -1295,11 +1617,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C45" s="16">
+    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C45" s="43">
         <v>5</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="44">
         <v>5</v>
       </c>
       <c r="E45">
@@ -1309,11 +1631,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="18">
-        <v>6</v>
-      </c>
-      <c r="D46" s="19">
+    <row r="46" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="36">
+        <v>6</v>
+      </c>
+      <c r="D46" s="37">
         <v>6</v>
       </c>
       <c r="E46" s="5">
@@ -1323,34 +1645,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C49" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="21"/>
+      <c r="C49" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="40"/>
+      <c r="E49" s="39"/>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1366,32 +1688,32 @@
     </row>
     <row r="54" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C55" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="21"/>
+      <c r="C55" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="40"/>
+      <c r="E55" s="39"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
         <v>24</v>
       </c>
-      <c r="D56" t="s">
-        <v>25</v>
-      </c>
       <c r="E56" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1407,84 +1729,84 @@
     </row>
     <row r="61" spans="3:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C62" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
+      <c r="C62" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
     </row>
     <row r="63" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
+      <c r="C63" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
       <c r="F63" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C64" s="16">
-        <v>1</v>
-      </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
+      <c r="C64" s="43">
+        <v>1</v>
+      </c>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
       <c r="F64" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C65" s="16">
+      <c r="C65" s="43">
         <v>2</v>
       </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
       <c r="F65" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C66" s="16">
+      <c r="C66" s="43">
         <v>3</v>
       </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
       <c r="F66" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="18">
+      <c r="C67" s="36">
         <v>4</v>
       </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
       <c r="F67" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C71" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D71" s="21"/>
+      <c r="C71" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" s="39"/>
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C72" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C73" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1497,38 +1819,38 @@
     </row>
     <row r="79" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="39"/>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C81" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="42"/>
+      <c r="E81" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H81" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="21"/>
-    </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C81" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" s="24"/>
-      <c r="E81" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H81" s="15" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="82" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C82" s="16">
-        <v>1</v>
-      </c>
-      <c r="D82" s="17"/>
+      <c r="C82" s="43">
+        <v>1</v>
+      </c>
+      <c r="D82" s="44"/>
       <c r="E82">
         <v>6</v>
       </c>
@@ -1543,10 +1865,10 @@
       </c>
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C83" s="16">
+      <c r="C83" s="43">
         <v>2</v>
       </c>
-      <c r="D83" s="17"/>
+      <c r="D83" s="44"/>
       <c r="E83">
         <v>5</v>
       </c>
@@ -1561,10 +1883,10 @@
       </c>
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C84" s="16">
+      <c r="C84" s="43">
         <v>3</v>
       </c>
-      <c r="D84" s="17"/>
+      <c r="D84" s="44"/>
       <c r="E84">
         <v>4</v>
       </c>
@@ -1579,10 +1901,10 @@
       </c>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C85" s="16">
+      <c r="C85" s="43">
         <v>4</v>
       </c>
-      <c r="D85" s="17"/>
+      <c r="D85" s="44"/>
       <c r="E85">
         <v>3</v>
       </c>
@@ -1597,10 +1919,10 @@
       </c>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C86" s="16">
+      <c r="C86" s="43">
         <v>5</v>
       </c>
-      <c r="D86" s="17"/>
+      <c r="D86" s="44"/>
       <c r="E86">
         <v>2</v>
       </c>
@@ -1615,10 +1937,10 @@
       </c>
     </row>
     <row r="87" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="18">
-        <v>6</v>
-      </c>
-      <c r="D87" s="19"/>
+      <c r="C87" s="36">
+        <v>6</v>
+      </c>
+      <c r="D87" s="37"/>
       <c r="E87" s="5">
         <v>1</v>
       </c>
@@ -1634,25 +1956,25 @@
     </row>
     <row r="91" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C92" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D92" s="21"/>
+      <c r="C92" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92" s="39"/>
     </row>
     <row r="93" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C93" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C94" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1665,38 +1987,38 @@
     </row>
     <row r="99" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C100" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="21"/>
+      <c r="C100" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D100" s="40"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="40"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="39"/>
     </row>
     <row r="101" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C101" s="23" t="s">
+      <c r="C101" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D101" s="42"/>
+      <c r="E101" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D101" s="24"/>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H101" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C102" s="16">
-        <v>1</v>
-      </c>
-      <c r="D102" s="17"/>
+      <c r="C102" s="43">
+        <v>1</v>
+      </c>
+      <c r="D102" s="44"/>
       <c r="E102">
         <v>6</v>
       </c>
@@ -1711,10 +2033,10 @@
       </c>
     </row>
     <row r="103" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C103" s="16">
+      <c r="C103" s="43">
         <v>2</v>
       </c>
-      <c r="D103" s="17"/>
+      <c r="D103" s="44"/>
       <c r="E103">
         <v>5</v>
       </c>
@@ -1729,10 +2051,10 @@
       </c>
     </row>
     <row r="104" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C104" s="16">
+      <c r="C104" s="43">
         <v>3</v>
       </c>
-      <c r="D104" s="17"/>
+      <c r="D104" s="44"/>
       <c r="E104">
         <v>4</v>
       </c>
@@ -1747,10 +2069,10 @@
       </c>
     </row>
     <row r="105" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C105" s="16">
+      <c r="C105" s="43">
         <v>4</v>
       </c>
-      <c r="D105" s="17"/>
+      <c r="D105" s="44"/>
       <c r="E105">
         <v>3</v>
       </c>
@@ -1765,10 +2087,10 @@
       </c>
     </row>
     <row r="106" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C106" s="16">
+      <c r="C106" s="43">
         <v>5</v>
       </c>
-      <c r="D106" s="17"/>
+      <c r="D106" s="44"/>
       <c r="E106">
         <v>2</v>
       </c>
@@ -1783,10 +2105,10 @@
       </c>
     </row>
     <row r="107" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="18">
-        <v>6</v>
-      </c>
-      <c r="D107" s="19"/>
+      <c r="C107" s="36">
+        <v>6</v>
+      </c>
+      <c r="D107" s="37"/>
       <c r="E107" s="5">
         <v>1</v>
       </c>
@@ -1802,25 +2124,25 @@
     </row>
     <row r="111" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="112" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C112" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D112" s="21"/>
+      <c r="C112" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" s="39"/>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C113" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C114" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1833,38 +2155,38 @@
     </row>
     <row r="120" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="121" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C121" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="21"/>
+      <c r="C121" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D121" s="40"/>
+      <c r="E121" s="40"/>
+      <c r="F121" s="40"/>
+      <c r="G121" s="40"/>
+      <c r="H121" s="39"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C122" s="23" t="s">
+      <c r="C122" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" s="42"/>
+      <c r="E122" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D122" s="24"/>
-      <c r="E122" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="G122" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H122" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C123" s="16">
-        <v>1</v>
-      </c>
-      <c r="D123" s="17"/>
+      <c r="C123" s="43">
+        <v>1</v>
+      </c>
+      <c r="D123" s="44"/>
       <c r="E123">
         <v>6</v>
       </c>
@@ -1879,10 +2201,10 @@
       </c>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C124" s="16">
+      <c r="C124" s="43">
         <v>2</v>
       </c>
-      <c r="D124" s="17"/>
+      <c r="D124" s="44"/>
       <c r="E124">
         <v>5</v>
       </c>
@@ -1897,10 +2219,10 @@
       </c>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C125" s="16">
+      <c r="C125" s="43">
         <v>3</v>
       </c>
-      <c r="D125" s="17"/>
+      <c r="D125" s="44"/>
       <c r="E125">
         <v>4</v>
       </c>
@@ -1915,10 +2237,10 @@
       </c>
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C126" s="16">
+      <c r="C126" s="43">
         <v>4</v>
       </c>
-      <c r="D126" s="17"/>
+      <c r="D126" s="44"/>
       <c r="E126">
         <v>3</v>
       </c>
@@ -1933,10 +2255,10 @@
       </c>
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C127" s="16">
+      <c r="C127" s="43">
         <v>5</v>
       </c>
-      <c r="D127" s="17"/>
+      <c r="D127" s="44"/>
       <c r="E127">
         <v>2</v>
       </c>
@@ -1951,10 +2273,10 @@
       </c>
     </row>
     <row r="128" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="18">
-        <v>6</v>
-      </c>
-      <c r="D128" s="19"/>
+      <c r="C128" s="36">
+        <v>6</v>
+      </c>
+      <c r="D128" s="37"/>
       <c r="E128" s="5">
         <v>1</v>
       </c>
@@ -1970,25 +2292,25 @@
     </row>
     <row r="132" spans="3:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C133" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D133" s="21"/>
+      <c r="C133" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D133" s="39"/>
     </row>
     <row r="134" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C134" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C135" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="3:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2000,62 +2322,27 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="115">
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:P37"/>
     <mergeCell ref="C112:D112"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="C104:D104"/>
     <mergeCell ref="C105:D105"/>
     <mergeCell ref="C106:D106"/>
     <mergeCell ref="C107:D107"/>
-    <mergeCell ref="H19:I22"/>
     <mergeCell ref="C100:H100"/>
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="C102:D102"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H6:I9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F11:G14"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="H11:I18"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C55:E55"/>
@@ -2066,13 +2353,73 @@
     <mergeCell ref="C66:E66"/>
     <mergeCell ref="C67:E67"/>
     <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H6:I9"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H19:I22"/>
+    <mergeCell ref="F11:G14"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H11:I18"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="N10:P11"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="M24:N25"/>
+    <mergeCell ref="O24:P25"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="C80:H80"/>
     <mergeCell ref="C92:D92"/>
@@ -2081,25 +2428,28 @@
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63C529D-8F6D-4385-8ECE-0B2A69A63EA5}">
-  <dimension ref="B3:H86"/>
+  <dimension ref="B3:R86"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2107,12 +2457,15 @@
     <col min="2" max="2" customWidth="true" width="31.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="50.0" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.85546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="15.5703125" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="16.42578125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -2120,206 +2473,382 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+      <c r="L4" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="22"/>
+    </row>
+    <row r="5" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="66"/>
+      <c r="D5" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="64"/>
+      <c r="L5" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="62"/>
+      <c r="N5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="24"/>
+    </row>
+    <row r="6" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="37"/>
-    </row>
-    <row r="6" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
-    </row>
-    <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="34" t="s">
+      <c r="H6" s="64"/>
+      <c r="L6" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="33"/>
+      <c r="N6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="34"/>
+    </row>
+    <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="64"/>
+      <c r="L7" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="33"/>
+      <c r="N7" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="64"/>
+      <c r="L8" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="33"/>
+      <c r="N8" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+    </row>
+    <row r="9" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="53"/>
+      <c r="L9" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="33"/>
+      <c r="N9" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+    </row>
+    <row r="10" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="46"/>
+      <c r="N10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="47"/>
+    </row>
+    <row r="15" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="39"/>
+      <c r="L16" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="60"/>
+    </row>
+    <row r="17" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-    </row>
-    <row r="9" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="33"/>
-    </row>
-    <row r="15" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="23" t="s">
+      <c r="L17" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" s="44"/>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="44"/>
       <c r="D18">
         <v>6</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="17"/>
+      <c r="L18" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="44"/>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="17"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="49"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="44"/>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="17"/>
+      <c r="L20" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="44"/>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="17"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="49"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="44"/>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="19"/>
+      <c r="L22" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="37"/>
       <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="21"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="L23" s="67"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="49"/>
+    </row>
+    <row r="24" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="68"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="53"/>
+    </row>
+    <row r="27" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="39"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
         <v>7</v>
       </c>
@@ -2333,30 +2862,30 @@
     <row r="34" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="21"/>
+      <c r="B36" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="39"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="44"/>
       <c r="D38">
         <v>6</v>
       </c>
@@ -2365,10 +2894,10 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="17"/>
+      <c r="B39" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="44"/>
       <c r="D39">
         <v>5</v>
       </c>
@@ -2377,10 +2906,10 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="17"/>
+      <c r="B40" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="44"/>
       <c r="D40">
         <v>4</v>
       </c>
@@ -2389,10 +2918,10 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="17"/>
+      <c r="B41" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="44"/>
       <c r="D41">
         <v>3</v>
       </c>
@@ -2401,10 +2930,10 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="17"/>
+      <c r="B42" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="44"/>
       <c r="D42">
         <v>2</v>
       </c>
@@ -2413,10 +2942,10 @@
       </c>
     </row>
     <row r="43" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="19"/>
+      <c r="B43" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="37"/>
       <c r="D43" s="5">
         <v>1</v>
       </c>
@@ -2426,32 +2955,32 @@
     </row>
     <row r="46" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="21"/>
+      <c r="B47" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="40"/>
+      <c r="D47" s="39"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
         <v>24</v>
       </c>
-      <c r="C48" t="s">
-        <v>25</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2467,22 +2996,22 @@
     </row>
     <row r="53" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="21"/>
+      <c r="B54" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="39"/>
     </row>
     <row r="55" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2490,7 +3019,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57" s="4">
         <v>2</v>
@@ -2498,7 +3027,7 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" s="4">
         <v>3</v>
@@ -2506,7 +3035,7 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C59" s="4">
         <v>4</v>
@@ -2514,7 +3043,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" s="4">
         <v>5</v>
@@ -2522,7 +3051,7 @@
     </row>
     <row r="61" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C61" s="6">
         <v>6</v>
@@ -2530,25 +3059,25 @@
     </row>
     <row r="64" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" s="21"/>
+      <c r="B65" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="39"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2561,22 +3090,22 @@
     </row>
     <row r="71" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C72" s="21"/>
+      <c r="B72" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="39"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C74" s="4">
         <v>12</v>
@@ -2584,7 +3113,7 @@
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C75" s="4">
         <v>2</v>
@@ -2592,7 +3121,7 @@
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C76" s="4">
         <v>3</v>
@@ -2600,7 +3129,7 @@
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C77" s="4">
         <v>4</v>
@@ -2608,7 +3137,7 @@
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C78" s="4">
         <v>5</v>
@@ -2616,7 +3145,7 @@
     </row>
     <row r="79" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C79" s="6">
         <v>6</v>
@@ -2624,25 +3153,25 @@
     </row>
     <row r="82" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B83" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C83" s="21"/>
+      <c r="B83" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="39"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2650,12 +3179,18 @@
         <v>2</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="G5:H8"/>
+  <mergeCells count="52">
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
@@ -2665,17 +3200,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
@@ -2687,6 +3211,31 @@
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B54:C54"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="Q6:R9"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="M20:P21"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="M22:P24"/>
+    <mergeCell ref="Q22:Q24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
